--- a/medicine/Handicap/Le_Visiteur_(film,_2008)/Le_Visiteur_(film,_2008).xlsx
+++ b/medicine/Handicap/Le_Visiteur_(film,_2008)/Le_Visiteur_(film,_2008).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Visiteur est un film germano-britannico-finlandais réalisé par Jukka-Pekka Valkeapää, sorti en 2008.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cœur de la forêt finlandaise, dans une clairière, un jeune garçon et sa mère survivent dans une ferme en rondins dont la maison d'habitation et les dépendances tombent en ruines. Le père étant en prison, la mère handicapée, ne pouvant se déplacer sans son attelle fixée autour de la jambe, l'exploitation ne peut être correctement tenue d'autant plus qu'elle est située sur des terrains pauvres. Le jeune fils unique est muet mais, malgré les circonstances, ou à cause d'elles, il est d'une grande maturité. Il assure le rôle de visiteur de prison et à chaque visite, remet à son père une petite boîte en fer à double fond qui sert de tabatière. Il joue aussi le rôle de garçon de ferme, donne du foin au cheval, va au puits puiser de l'eau, ramasse les œufs dans le poulailler, épluche les pommes de terre qui ont l'air de constituer l'essentiel de leur alimentation et aide sa mère à fixer son attelle.
 «Tout» va changer avec l'arrivée d'un inconnu, le visiteur, qui remet un message à la mère. Les quelques mots rédigés par son mari lui indiquent qu'elle doit l'héberger un certain temps. Elle le fait coucher dans l'écurie puis dans la maison pour le soigner car sous ses vêtements, la mère et le fils découvrent un seton en putréfaction. Le fils dont ni le nom ni le prénom ne sont prononcés, ne pouvant parler, observe et observe par l'entrebâillement des portes, par les trous du plafond, écoute et écoute tous les bruits qui par leur nature l'informent de ce qui se passe. Progressivement sa mère se rapproche de cet intrus qui va gagner sa confiance et celle de notre jeune héros en se rendant utile. De plus il «apprivoise» leur cheval et apprend au jeune garçon à monter ce qui va mal se terminer.
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Muukalainen
 Titre français : Le visiteur
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Allan Bernard : un gardien de prison
 Vitali Bobrov : le jeune garçon, héros de l'histoire
@@ -637,7 +655,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Festival international du film de Göteborg 2009
 prix du dragon pour le meilleur film nordique
@@ -676,7 +696,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que la caméra nous montre tous les faits comme si elle était les yeux grands ouverts du héros, que la bande son nous fasse ressentir les bruits de la forêt comme si nous avions les oreilles du jeune garçon, l'essentiel est l'atmosphère du film et non son dénouement donc il n'est pas nécessaire d'en révéler la fin.
 </t>
